--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r110_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r110_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -997,10 +1009,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1044,28 +1056,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1090,28 +1102,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1257,10 +1269,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1304,28 +1316,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="2">
+      <c r="C41" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1350,28 +1362,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1546,10 +1558,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1593,28 +1605,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="2">
+      <c r="C51" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1639,28 +1651,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1806,10 +1818,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1853,28 +1865,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1899,28 +1911,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2124,10 +2136,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2171,28 +2183,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2217,28 +2229,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2442,10 +2454,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2489,28 +2501,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2535,28 +2547,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2615,10 +2627,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2662,28 +2674,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2708,28 +2720,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2846,10 +2858,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2893,28 +2905,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2939,28 +2951,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3077,10 +3089,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3124,28 +3136,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3170,28 +3182,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3250,10 +3262,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3297,28 +3309,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3343,28 +3355,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3481,10 +3493,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3528,28 +3540,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3574,28 +3586,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3799,10 +3811,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3846,28 +3858,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3892,28 +3904,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4059,10 +4071,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4106,28 +4118,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4152,28 +4164,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4348,10 +4360,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4395,28 +4407,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4441,28 +4453,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4521,10 +4533,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4568,28 +4580,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4614,28 +4626,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4810,10 +4822,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4857,28 +4869,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4903,28 +4915,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4983,10 +4995,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5030,28 +5042,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5076,28 +5088,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5301,10 +5313,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5348,28 +5360,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5394,28 +5406,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5474,10 +5486,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5521,28 +5533,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5567,28 +5579,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5647,10 +5659,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5694,28 +5706,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5740,28 +5752,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5820,10 +5832,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5867,28 +5879,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5913,28 +5925,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5993,10 +6005,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6040,28 +6052,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6086,28 +6098,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6166,10 +6178,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6213,28 +6225,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6259,28 +6271,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6339,10 +6351,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6386,28 +6398,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6432,28 +6444,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6512,10 +6524,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6559,28 +6571,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="2">
+      <c r="A223" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="2">
+      <c r="C223" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6605,28 +6617,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="2">
+      <c r="C225" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="2">
+      <c r="D225" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="2">
+      <c r="I225" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6685,10 +6697,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="2" t="s">
+      <c r="J227" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6732,28 +6744,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="2">
+      <c r="A229" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="2">
+      <c r="C229" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6778,28 +6790,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="2">
+      <c r="C231" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="2">
+      <c r="D231" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="2">
+      <c r="I231" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6858,10 +6870,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6905,28 +6917,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6951,28 +6963,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7089,10 +7101,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7136,28 +7148,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="2">
+      <c r="A243" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="2">
+      <c r="C243" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7182,28 +7194,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="2">
+      <c r="C245" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="2">
+      <c r="D245" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="2">
+      <c r="I245" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7262,10 +7274,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7309,28 +7321,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7355,28 +7367,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7435,10 +7447,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7482,28 +7494,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7528,28 +7540,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7608,10 +7620,10 @@
       <c r="I259">
         <f>((C259-C258)^2+(D259- D258)^2)^.5</f>
       </c>
-      <c r="J259" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K259" s="2" t="s">
+      <c r="J259" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K259" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L259" t="n">
@@ -7655,28 +7667,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="2">
+      <c r="A261" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C261" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D261" t="s" s="2">
+      <c r="C261" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D261" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7701,28 +7713,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C263" t="s" s="2">
+      <c r="C263" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D263" t="s" s="2">
+      <c r="D263" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I263" t="s" s="2">
+      <c r="I263" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7781,10 +7793,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="2" t="s">
+      <c r="J265" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7828,28 +7840,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="2">
+      <c r="A267" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="2">
+      <c r="C267" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7874,28 +7886,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="2">
+      <c r="C269" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="2">
+      <c r="D269" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="2">
+      <c r="I269" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7954,10 +7966,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -8001,28 +8013,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="2">
+      <c r="A273" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="2">
+      <c r="C273" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8047,28 +8059,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="2">
+      <c r="C275" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="2">
+      <c r="D275" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="2">
+      <c r="I275" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8127,10 +8139,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="2" t="s">
+      <c r="J277" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8174,28 +8186,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="2">
+      <c r="A279" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="2">
+      <c r="C279" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8220,28 +8232,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="2">
+      <c r="C281" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="2">
+      <c r="D281" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="2">
+      <c r="I281" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8300,10 +8312,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="2" t="s">
+      <c r="J283" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8347,28 +8359,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="2">
+      <c r="A285" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="2">
+      <c r="C285" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8393,28 +8405,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="2">
+      <c r="C287" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="2">
+      <c r="D287" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="2">
+      <c r="I287" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8473,10 +8485,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="2" t="s">
+      <c r="J289" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8520,28 +8532,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="2">
+      <c r="A291" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="2">
+      <c r="C291" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8566,28 +8578,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="2">
+      <c r="C293" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="2">
+      <c r="D293" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="2">
+      <c r="I293" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8646,10 +8658,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="2" t="s">
+      <c r="J295" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8693,28 +8705,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="2">
+      <c r="A297" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="2">
+      <c r="C297" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8739,28 +8751,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="2">
+      <c r="C299" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="2">
+      <c r="D299" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="2">
+      <c r="I299" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8819,10 +8831,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="2" t="s">
+      <c r="J301" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
